--- a/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Provincia-trans_orig.xlsx
@@ -754,7 +754,7 @@
         <v>71375</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69250</v>
+        <v>69195</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>72407</v>
@@ -763,7 +763,7 @@
         <v>0.9857413587143476</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.956400471412753</v>
+        <v>0.9556457257531753</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -775,16 +775,16 @@
         <v>131140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128539</v>
+        <v>128471</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>132172</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9921887926427171</v>
+        <v>0.9921887926427173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9725106908018604</v>
+        <v>0.9719952210524566</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3157</v>
+        <v>3212</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01425864128565218</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04359952858724671</v>
+        <v>0.04435427424682457</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -888,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3633</v>
+        <v>3701</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.007811207357282818</v>
+        <v>0.007811207357282819</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02748930919813844</v>
+        <v>0.02800477894754293</v>
       </c>
     </row>
     <row r="7">
@@ -1083,16 +1083,16 @@
         <v>64048</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57719</v>
+        <v>56908</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>66940</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9567987566423736</v>
+        <v>0.9567987566423735</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.86225363659096</v>
+        <v>0.8501377027945338</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1104,16 +1104,16 @@
         <v>63498</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58454</v>
+        <v>59471</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>65340</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9718041757942411</v>
+        <v>0.9718041757942409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8946059021929504</v>
+        <v>0.9101767042693905</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1125,19 +1125,19 @@
         <v>127545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120941</v>
+        <v>121131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130902</v>
+        <v>130876</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9642107220659459</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9142885917099719</v>
+        <v>0.9157227188938841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9895931206114643</v>
+        <v>0.9893949341940086</v>
       </c>
     </row>
     <row r="11">
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6299</v>
+        <v>8084</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0214355166363491</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09410619282617627</v>
+        <v>0.1207576934617888</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4257</v>
+        <v>3800</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01146550959866435</v>
+        <v>0.01146550959866434</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06515622110626597</v>
+        <v>0.05815363148051843</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1246,16 +1246,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8073</v>
+        <v>8408</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01651080599093568</v>
+        <v>0.01651080599093567</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06103366259330973</v>
+        <v>0.06356477803475326</v>
       </c>
     </row>
     <row r="13">
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6669</v>
+        <v>8212</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02176572672127733</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09962713809031079</v>
+        <v>0.1226717763785913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6619</v>
+        <v>5836</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01673031460709469</v>
+        <v>0.01673031460709468</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1012941368985452</v>
+        <v>0.0893163008615484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8264</v>
+        <v>8756</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01927847194311846</v>
+        <v>0.01927847194311845</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06247431457633835</v>
+        <v>0.06619359848645785</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>67693</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61406</v>
+        <v>60668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71248</v>
+        <v>71601</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9174012365084453</v>
+        <v>0.9174012365084452</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8321914064212018</v>
+        <v>0.8221883125069792</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.965572362241687</v>
+        <v>0.9703663956827063</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -1486,19 +1486,19 @@
         <v>70477</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65563</v>
+        <v>65105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73774</v>
+        <v>73959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9117469065521085</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8481720684867881</v>
+        <v>0.8422517846886785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9544006627048233</v>
+        <v>0.9567893838626498</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -1507,19 +1507,19 @@
         <v>138171</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130952</v>
+        <v>130609</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143454</v>
+        <v>143266</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9145083740279255</v>
+        <v>0.9145083740279254</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8667262983831909</v>
+        <v>0.8644575285385468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9494727576552535</v>
+        <v>0.9482271580143531</v>
       </c>
     </row>
     <row r="17">
@@ -1583,19 +1583,19 @@
         <v>4917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10158</v>
+        <v>10728</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06664021439600747</v>
+        <v>0.06664021439600744</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02461307785112034</v>
+        <v>0.0248819349622462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1376673627368242</v>
+        <v>0.1453838693903862</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1604,19 +1604,19 @@
         <v>4712</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2171</v>
+        <v>2209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9104</v>
+        <v>9487</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06095401547274749</v>
+        <v>0.06095401547274748</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02809010195587928</v>
+        <v>0.02858309959856575</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1177824282355041</v>
+        <v>0.1227356433322837</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1625,19 +1625,19 @@
         <v>9629</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5233</v>
+        <v>5613</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16385</v>
+        <v>16456</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06373104714738657</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03463347115621685</v>
+        <v>0.03714753902654108</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.108447508448292</v>
+        <v>0.1089174895845615</v>
       </c>
     </row>
     <row r="19">
@@ -1704,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5560</v>
+        <v>5814</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01595854909554746</v>
+        <v>0.01595854909554745</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07535109013937556</v>
+        <v>0.07879660391003991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1722,19 +1722,19 @@
         <v>2110</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5754</v>
+        <v>6411</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02729907797514401</v>
+        <v>0.027299077975144</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008005835150430411</v>
+        <v>0.007906133862211779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07443517192663765</v>
+        <v>0.08294388745872674</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1743,19 +1743,19 @@
         <v>3288</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1135</v>
+        <v>770</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8515</v>
+        <v>8492</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02176057882468804</v>
+        <v>0.02176057882468803</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007512596491942906</v>
+        <v>0.005094568726615131</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05636116591562915</v>
+        <v>0.05620350294568737</v>
       </c>
     </row>
     <row r="21">
@@ -1847,16 +1847,16 @@
         <v>70962</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56936</v>
+        <v>58215</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>75884</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9351439781998521</v>
+        <v>0.9351439781998523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7503040816943521</v>
+        <v>0.7671571152707114</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1868,19 +1868,19 @@
         <v>73073</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68254</v>
+        <v>68183</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76538</v>
+        <v>76003</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9424977659764883</v>
+        <v>0.9424977659764882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8803463283809549</v>
+        <v>0.8794285496557774</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9871881594066159</v>
+        <v>0.980293950803694</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>116</v>
@@ -1889,19 +1889,19 @@
         <v>144034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>130075</v>
+        <v>128981</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>149563</v>
+        <v>149615</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9388603511208005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8478678521656998</v>
+        <v>0.8407388149950913</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9748992377103726</v>
+        <v>0.9752363923653896</v>
       </c>
     </row>
     <row r="23">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4594</v>
+        <v>6304</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01122083930898168</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05925412745320952</v>
+        <v>0.0813110863117525</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4811</v>
+        <v>6703</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005670659070513341</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03135701032486134</v>
+        <v>0.04369331153407174</v>
       </c>
     </row>
     <row r="24">
@@ -1997,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5943</v>
+        <v>6571</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02473628914412889</v>
+        <v>0.0247362891441289</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07664679720139031</v>
+        <v>0.0847491179831741</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6796</v>
+        <v>5738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01250094209028693</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04430036013116555</v>
+        <v>0.03740103008539192</v>
       </c>
     </row>
     <row r="25">
@@ -2094,16 +2094,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18948</v>
+        <v>17669</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06485602180014767</v>
+        <v>0.06485602180014768</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2496959183056479</v>
+        <v>0.2328428847292858</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2115,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5691</v>
+        <v>5695</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02154510557040135</v>
+        <v>0.02154510557040136</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0734016055160219</v>
+        <v>0.07345280678457275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2133,19 +2133,19 @@
         <v>6592</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1696</v>
+        <v>1578</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21963</v>
+        <v>21448</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04296804771839931</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01105483554017169</v>
+        <v>0.01028352120179232</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1431611075168106</v>
+        <v>0.1398051558274979</v>
       </c>
     </row>
     <row r="27">
@@ -2237,7 +2237,7 @@
         <v>59683</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>56912</v>
+        <v>56609</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>60463</v>
@@ -2246,7 +2246,7 @@
         <v>0.9870976535196782</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9412656552291472</v>
+        <v>0.9362509816452289</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>76262</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73154</v>
+        <v>73464</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>77270</v>
@@ -2267,7 +2267,7 @@
         <v>0.9869549909534041</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9467364355881454</v>
+        <v>0.9507488532421318</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>1</v>
@@ -2279,19 +2279,19 @@
         <v>135945</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>132779</v>
+        <v>131953</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>137388</v>
+        <v>137382</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9870176181460633</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9640303808190507</v>
+        <v>0.9580331037822215</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9974933836489497</v>
+        <v>0.9974524054154869</v>
       </c>
     </row>
     <row r="29">
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2098</v>
+        <v>1496</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.004467566850310554</v>
+        <v>0.004467566850310555</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02714584945674181</v>
+        <v>0.01936052223836974</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2088</v>
+        <v>1841</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002506357423347045</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01516328592960104</v>
+        <v>0.0133689917390476</v>
       </c>
     </row>
     <row r="30">
@@ -2434,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3575</v>
+        <v>3104</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.008577442196285269</v>
+        <v>0.00857744219628527</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04626236975196035</v>
+        <v>0.04017165002110595</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2753</v>
+        <v>3651</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.004812045715778235</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01999067678593035</v>
+        <v>0.02651007708018225</v>
       </c>
     </row>
     <row r="32">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3551</v>
+        <v>3854</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01290234648032184</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05873434477085311</v>
+        <v>0.06374901835477129</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4020</v>
+        <v>3762</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005663978714811548</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02918775082724804</v>
+        <v>0.02731595241432774</v>
       </c>
     </row>
     <row r="33">
@@ -2632,19 +2632,19 @@
         <v>63939</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>60413</v>
+        <v>60301</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>65450</v>
+        <v>65435</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.967514368824569</v>
+        <v>0.9675143688245688</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9141586837796002</v>
+        <v>0.912468198384653</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9903758044440505</v>
+        <v>0.9901453613431119</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>172</v>
@@ -2653,7 +2653,7 @@
         <v>138980</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>134515</v>
+        <v>135128</v>
       </c>
       <c r="T34" s="5" t="n">
         <v>140479</v>
@@ -2662,10 +2662,10 @@
         <v>0.9847877225863317</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9531483684214671</v>
+        <v>0.9574907559461094</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9954118770169496</v>
+        <v>0.9954059654014416</v>
       </c>
     </row>
     <row r="35">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3579</v>
+        <v>3049</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01101364959221372</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05415342437447566</v>
+        <v>0.0461415260934613</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4122</v>
+        <v>3810</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.005157439977967919</v>
+        <v>0.005157439977967918</v>
       </c>
       <c r="V35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02920467535927836</v>
+        <v>0.02699518107555423</v>
       </c>
     </row>
     <row r="36">
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5009</v>
+        <v>4690</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0214719815832174</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07579057074310601</v>
+        <v>0.07096361301330356</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4937</v>
+        <v>4802</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01005483743570034</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03498314081664005</v>
+        <v>0.03402311275294335</v>
       </c>
     </row>
     <row r="39">
@@ -2977,19 +2977,19 @@
         <v>110730</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>103169</v>
+        <v>102859</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>115496</v>
+        <v>115480</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.9236942521631449</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8606209233641332</v>
+        <v>0.8580408263712304</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.963456088739939</v>
+        <v>0.9633242139528161</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>197</v>
@@ -2998,19 +2998,19 @@
         <v>169260</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>162256</v>
+        <v>162712</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>173362</v>
+        <v>173374</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.9455219676054025</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.9063947059477133</v>
+        <v>0.9089444629614237</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.968437296354793</v>
+        <v>0.9685075446377295</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>278</v>
@@ -3019,19 +3019,19 @@
         <v>279989</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>270075</v>
+        <v>271456</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>286751</v>
+        <v>287273</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.9367674046482894</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.9035976476651122</v>
+        <v>0.9082184252391181</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.959390863535134</v>
+        <v>0.9611364312866825</v>
       </c>
     </row>
     <row r="41">
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7974</v>
+        <v>7951</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01884109037932039</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06651727896882074</v>
+        <v>0.06632340225459318</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>3946</v>
+        <v>3954</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003959215971498676</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02204103347213785</v>
+        <v>0.02208719817142616</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3090,19 +3090,19 @@
         <v>2967</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7610</v>
+        <v>8330</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00992797192160165</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0</v>
+        <v>0.002352188616043658</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02545980767710605</v>
+        <v>0.02786831848289767</v>
       </c>
     </row>
     <row r="42">
@@ -3119,19 +3119,19 @@
         <v>3376</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8699</v>
+        <v>10227</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.02816589434759855</v>
+        <v>0.02816589434759854</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.008942446299159674</v>
+        <v>0.008906616552746549</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07256568096512148</v>
+        <v>0.08531068060402329</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>10</v>
@@ -3140,19 +3140,19 @@
         <v>7239</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3685</v>
+        <v>3749</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>12974</v>
+        <v>12786</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04043661013281975</v>
+        <v>0.04043661013281976</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02058749479126338</v>
+        <v>0.02094128956562952</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07247716216420629</v>
+        <v>0.07142686419796222</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>13</v>
@@ -3161,19 +3161,19 @@
         <v>10615</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6030</v>
+        <v>5968</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>17999</v>
+        <v>17649</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03551512606112465</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02017582232897593</v>
+        <v>0.01996821579980676</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.06022036469955772</v>
+        <v>0.05904841438384471</v>
       </c>
     </row>
     <row r="43">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7609</v>
+        <v>7612</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01052969008302398</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06347010109258469</v>
+        <v>0.06349526990766803</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>7197</v>
+        <v>6393</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.004223201232148352</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02407986784403676</v>
+        <v>0.02138922766853362</v>
       </c>
     </row>
     <row r="44">
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7049</v>
+        <v>6954</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01876907302691208</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.058804322953236</v>
+        <v>0.0580054441427558</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>6820</v>
+        <v>5680</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01008220629027886</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0380963033450237</v>
+        <v>0.03172887090046957</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -3295,19 +3295,19 @@
         <v>4055</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>9637</v>
+        <v>10456</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01356629613683606</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003639906403734362</v>
+        <v>0.00369128825354749</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03224143005825005</v>
+        <v>0.03498260353707714</v>
       </c>
     </row>
     <row r="45">
@@ -3399,19 +3399,19 @@
         <v>159278</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>152390</v>
+        <v>153294</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>162794</v>
+        <v>162799</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.9712189286852754</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.9292203975953699</v>
+        <v>0.9347290306405881</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.9926585589410817</v>
+        <v>0.9926911947694353</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>180</v>
@@ -3420,19 +3420,19 @@
         <v>153945</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>147993</v>
+        <v>148454</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>157049</v>
+        <v>156998</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.9703298174668582</v>
+        <v>0.9703298174668584</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.9328180984001316</v>
+        <v>0.9357181753571486</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.9898944717450233</v>
+        <v>0.9895773067864357</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>309</v>
@@ -3441,19 +3441,19 @@
         <v>313223</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>305580</v>
+        <v>304635</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>318155</v>
+        <v>318087</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.9707817393512477</v>
+        <v>0.9707817393512473</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.947093049925483</v>
+        <v>0.9441654033352479</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.986068381729983</v>
+        <v>0.9858568560179285</v>
       </c>
     </row>
     <row r="47">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>4228</v>
+        <v>3446</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.004669041495671405</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02664902172408997</v>
+        <v>0.02172329302216587</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4143</v>
+        <v>4455</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.002295837798194375</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01284044332804683</v>
+        <v>0.01380752178502502</v>
       </c>
     </row>
     <row r="48">
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7333</v>
+        <v>7251</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01462336669502448</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0447137612046141</v>
+        <v>0.04421497376472487</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>4306</v>
+        <v>5867</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.005338173630018544</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02714371071418733</v>
+        <v>0.03698114718007365</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3</v>
@@ -3575,19 +3575,19 @@
         <v>3245</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>8888</v>
+        <v>8542</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01005769786943451</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0</v>
+        <v>0.00261679851399036</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02754723680450811</v>
+        <v>0.02647601513684101</v>
       </c>
     </row>
     <row r="49">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>7896</v>
+        <v>7059</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01415770461970023</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04814391535204558</v>
+        <v>0.04304138153755301</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>3</v>
@@ -3672,19 +3672,19 @@
         <v>3120</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>8481</v>
+        <v>8321</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01966296740745168</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.005012361004480436</v>
+        <v>0.005050437032074718</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.05345521539512055</v>
+        <v>0.05244827280663419</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>5</v>
@@ -3693,19 +3693,19 @@
         <v>5441</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1977</v>
+        <v>1989</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>12074</v>
+        <v>13109</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01686472498112352</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.006126194180162942</v>
+        <v>0.006165607685178163</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0374225055984355</v>
+        <v>0.04062892624184906</v>
       </c>
     </row>
     <row r="51">
@@ -3797,19 +3797,19 @@
         <v>667199</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>651482</v>
+        <v>651464</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>677007</v>
+        <v>677039</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.9589573099965937</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.9363672898306971</v>
+        <v>0.9363412448171015</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.9730537027928151</v>
+        <v>0.9731001850846482</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>971</v>
@@ -3818,19 +3818,19 @@
         <v>741827</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>730543</v>
+        <v>730680</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>749955</v>
+        <v>751072</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.9589332215429412</v>
+        <v>0.9589332215429414</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.9443469703428035</v>
+        <v>0.9445237899396953</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.9694399367520797</v>
+        <v>0.970884660516398</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1535</v>
@@ -3839,19 +3839,19 @@
         <v>1409027</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1391219</v>
+        <v>1391048</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1423038</v>
+        <v>1424276</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.9589446277088652</v>
+        <v>0.958944627708865</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.9468250543767649</v>
+        <v>0.9467083006610995</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.9684799331437639</v>
+        <v>0.9693223845951091</v>
       </c>
     </row>
     <row r="53">
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>8110</v>
+        <v>6904</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.003246273349717245</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01165652556014512</v>
+        <v>0.009923701755738342</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>5</v>
@@ -3889,19 +3889,19 @@
         <v>3393</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>7616</v>
+        <v>7902</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.004385388325771142</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.001370230698101801</v>
+        <v>0.001418185383477256</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.00984550408343657</v>
+        <v>0.01021453847828217</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>7</v>
@@ -3910,19 +3910,19 @@
         <v>5651</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2522</v>
+        <v>2156</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>11485</v>
+        <v>11753</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.003846003996228223</v>
+        <v>0.003846003996228222</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.001716682973913673</v>
+        <v>0.001467102005061008</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.007816579956258979</v>
+        <v>0.007999003205178698</v>
       </c>
     </row>
     <row r="54">
@@ -3939,19 +3939,19 @@
         <v>12127</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5698</v>
+        <v>6321</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>20245</v>
+        <v>21557</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01742969798511778</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.008189470839848223</v>
+        <v>0.009084396494846535</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02909730926135344</v>
+        <v>0.03098350434871404</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>23</v>
@@ -3960,19 +3960,19 @@
         <v>16497</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>10739</v>
+        <v>11039</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>24670</v>
+        <v>24640</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.02132460985974546</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01388241606838983</v>
+        <v>0.01426978081060599</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.03188965385797604</v>
+        <v>0.03185167340531251</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>34</v>
@@ -3981,19 +3981,19 @@
         <v>28623</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>19630</v>
+        <v>19785</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>39643</v>
+        <v>39607</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.01948032330896852</v>
+        <v>0.01948032330896851</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01335965678236628</v>
+        <v>0.01346485208736651</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02697973820035046</v>
+        <v>0.02695569910114646</v>
       </c>
     </row>
     <row r="55">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>10128</v>
+        <v>9287</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.00390835017857249</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.01455642816074509</v>
+        <v>0.01334845636686174</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>5898</v>
+        <v>6784</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.002269826087684969</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.007624186389670507</v>
+        <v>0.008769705644575248</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>4</v>
@@ -4052,19 +4052,19 @@
         <v>4475</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1326</v>
+        <v>1453</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>11966</v>
+        <v>11978</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.00304568650281612</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.0009023875201735111</v>
+        <v>0.0009889951570535259</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.008143736453578172</v>
+        <v>0.008151690429962714</v>
       </c>
     </row>
     <row r="56">
@@ -4081,19 +4081,19 @@
         <v>11451</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>5400</v>
+        <v>4696</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>26204</v>
+        <v>24296</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.0164583684899988</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.007761735871135336</v>
+        <v>0.006749286117148874</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03766265408551926</v>
+        <v>0.03492099246508702</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>12</v>
@@ -4102,19 +4102,19 @@
         <v>10124</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>5561</v>
+        <v>5746</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>17165</v>
+        <v>17647</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01308695418385704</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.007188694942393675</v>
+        <v>0.007427807473873537</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02218812328499666</v>
+        <v>0.02281109496408146</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>20</v>
@@ -4123,19 +4123,19 @@
         <v>21575</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>13610</v>
+        <v>12966</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>37181</v>
+        <v>36803</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.01468335848312212</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.009262833688105715</v>
+        <v>0.0088241477845106</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02530418962882743</v>
+        <v>0.02504720173985761</v>
       </c>
     </row>
     <row r="57">
